--- a/Selenium-Tips.xlsx
+++ b/Selenium-Tips.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\SeleniumMaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB4900-46A5-4EE3-BF29-99591FBE19B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244DFC2F-22CA-4F51-B70D-1857209C41FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Tips" sheetId="1" r:id="rId1"/>
     <sheet name="OOP Concept - Youtube" sheetId="2" r:id="rId2"/>
-    <sheet name="OOP Conecpt Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Xpath vs CSS Selector" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>3. Practice Xpaths / Inspect elements/ locators perfectly</t>
   </si>
@@ -180,13 +180,184 @@
   </si>
   <si>
     <t>Javascirpt Executor Events</t>
+  </si>
+  <si>
+    <t>14. Capture Screenshots</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS Selector</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>//input[@id='uname']</t>
+  </si>
+  <si>
+    <t>input#uname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>//input[@name='pwd']</t>
+  </si>
+  <si>
+    <t>input[name='pwd']</t>
+  </si>
+  <si>
+    <t>Classname</t>
+  </si>
+  <si>
+    <t>//div[@class='container']</t>
+  </si>
+  <si>
+    <t>div.container</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>//div[@name='credentials']/input</t>
+  </si>
+  <si>
+    <t>div[name='credentials'] &gt; input</t>
+  </si>
+  <si>
+    <t>Descendant</t>
+  </si>
+  <si>
+    <t>//div[@name='loginForm']//input</t>
+  </si>
+  <si>
+    <t>div[name='loginForm']  input</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>//input[@id='abcd']/parent::div</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ancestor</t>
+  </si>
+  <si>
+    <t>//div[@class='buttons']/ancestor::div</t>
+  </si>
+  <si>
+    <t>Following-sibling</t>
+  </si>
+  <si>
+    <t>//label[@name='Email']/following-sibling::input</t>
+  </si>
+  <si>
+    <t>label[name='Email'] + input</t>
+  </si>
+  <si>
+    <t>Preceding-sibling</t>
+  </si>
+  <si>
+    <t>//td[text()='Maria Anders']/preceding-sibling::td</t>
+  </si>
+  <si>
+    <t>nth Child</t>
+  </si>
+  <si>
+    <t>//div[@name='credentials']/input[2]</t>
+  </si>
+  <si>
+    <t>div[name='credentials'] input:nth-child(2)</t>
+  </si>
+  <si>
+    <t>First Child</t>
+  </si>
+  <si>
+    <t>//div[@name='credentials']/input[1]</t>
+  </si>
+  <si>
+    <t>div[name='credentials'] input:first-child</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>//input[@name='pwd' and @type='text']</t>
+  </si>
+  <si>
+    <t>input[name='pwd'][type='text']</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>//input[@name='pwd' and @id='password']</t>
+  </si>
+  <si>
+    <t>input[name='pwd'], input[id='password']</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>//input[@class='button' and not(@type='button')]</t>
+  </si>
+  <si>
+    <t>input.button:not([type='button'])</t>
+  </si>
+  <si>
+    <t>Attribute Contains</t>
+  </si>
+  <si>
+    <t>//input[contains(@placeholder, 'personal')]</t>
+  </si>
+  <si>
+    <t>input[placeholder*='personal']</t>
+  </si>
+  <si>
+    <t>Attribute Startswith</t>
+  </si>
+  <si>
+    <t>//input[starts-with(@placeholder, 'Verify')]</t>
+  </si>
+  <si>
+    <t>input[placeholder^='Verify']</t>
+  </si>
+  <si>
+    <t>Attribute Endswith</t>
+  </si>
+  <si>
+    <t>//input[ends-with(@placeholder, 'answer')]</t>
+  </si>
+  <si>
+    <t>input[placeholder$='answer']</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>//a[text()='Sign in']</t>
+  </si>
+  <si>
+    <t>normalize-space</t>
+  </si>
+  <si>
+    <t>//label[normalize-space(text())='First Name']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +394,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +433,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,14 +447,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
@@ -272,14 +498,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -339,6 +664,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DBB2AED-5E70-43EF-BE1C-9AB93CDA3D81}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" headerRowCellStyle="Input">
+  <autoFilter ref="A1:C20" xr:uid="{1281B4F9-2308-40B4-B757-C81B004D20BE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F2219A98-E6BC-4C73-8114-03547653201B}" name="Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5711F038-DDFD-4ED3-A0AE-40927BF38323}" name="Xpath" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CFBF2FC6-0D68-4C3B-888E-9DB060EA3E93}" name="CSS Selector" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9A38-D0A6-47F1-9877-24377C89BC1E}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +1227,11 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -927,12 +1269,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0073573D-809C-48DA-B5F6-C2615125458E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="2" width="85.77734375" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Selenium-Tips.xlsx
+++ b/Selenium-Tips.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\SeleniumMaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244DFC2F-22CA-4F51-B70D-1857209C41FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC003F8-2CD1-4872-B3FB-A6FF7F4A28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Tips" sheetId="1" r:id="rId1"/>
     <sheet name="OOP Concept - Youtube" sheetId="2" r:id="rId2"/>
     <sheet name="Xpath vs CSS Selector" sheetId="3" r:id="rId3"/>
+    <sheet name="Web Driver Standards Youtube" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>3. Practice Xpaths / Inspect elements/ locators perfectly</t>
   </si>
@@ -351,6 +352,9 @@
   </si>
   <si>
     <t>//label[normalize-space(text())='First Name']</t>
+  </si>
+  <si>
+    <t>https://w3c.github.io/webdriver/</t>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
@@ -495,12 +499,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -553,6 +558,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -565,6 +577,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -588,20 +607,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF7F7F7F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF7F7F7F"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -667,12 +672,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DBB2AED-5E70-43EF-BE1C-9AB93CDA3D81}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" headerRowCellStyle="Input">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DBB2AED-5E70-43EF-BE1C-9AB93CDA3D81}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="Input">
   <autoFilter ref="A1:C20" xr:uid="{1281B4F9-2308-40B4-B757-C81B004D20BE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2219A98-E6BC-4C73-8114-03547653201B}" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5711F038-DDFD-4ED3-A0AE-40927BF38323}" name="Xpath" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CFBF2FC6-0D68-4C3B-888E-9DB060EA3E93}" name="CSS Selector" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F2219A98-E6BC-4C73-8114-03547653201B}" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5711F038-DDFD-4ED3-A0AE-40927BF38323}" name="Xpath" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CFBF2FC6-0D68-4C3B-888E-9DB060EA3E93}" name="CSS Selector" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9A38-D0A6-47F1-9877-24377C89BC1E}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -992,10 +997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1247,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4843D49-18D8-4E17-912A-E6CA89D8AF31}">
   <dimension ref="A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0073573D-809C-48DA-B5F6-C2615125458E}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1282,223 +1287,223 @@
     <col min="3" max="3" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1509,4 +1514,28 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C34E5-D1C9-46A8-82ED-4FF1C01AA37D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Selenium-Tips.xlsx
+++ b/Selenium-Tips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\SeleniumMaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC003F8-2CD1-4872-B3FB-A6FF7F4A28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9CBE1-E499-4B39-AD3C-17E3AC069935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Tips" sheetId="1" r:id="rId1"/>
@@ -502,10 +502,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9A38-D0A6-47F1-9877-24377C89BC1E}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,10 +997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1160,12 +1160,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1195,27 +1195,32 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1235,7 +1240,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1252,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4843D49-18D8-4E17-912A-E6CA89D8AF31}">
   <dimension ref="A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Selenium-Tips.xlsx
+++ b/Selenium-Tips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\SeleniumMaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9CBE1-E499-4B39-AD3C-17E3AC069935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D712D13-38FC-4776-9C8D-B38CCAC5A65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Tips" sheetId="1" r:id="rId1"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9A38-D0A6-47F1-9877-24377C89BC1E}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1127,7 +1127,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="5"/>
@@ -1155,7 +1155,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Selenium-Tips.xlsx
+++ b/Selenium-Tips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\SeleniumMaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D712D13-38FC-4776-9C8D-B38CCAC5A65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD8FEC-C321-4C3D-B5C4-48EED681BB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE05C23-1BF1-42A7-90BC-827259F13849}"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Tips" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
@@ -506,6 +506,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -982,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9A38-D0A6-47F1-9877-24377C89BC1E}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1146,7 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1180,7 +1181,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1220,7 +1221,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1230,12 +1231,12 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1257,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4843D49-18D8-4E17-912A-E6CA89D8AF31}">
   <dimension ref="A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
